--- a/Datasets Overview.xlsx
+++ b/Datasets Overview.xlsx
@@ -5,15 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive\MyDocs\Study\TELUQ\Session 8 - Hiver 2025\SCI 1402\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c03774c2d788f493/MyDocs/Study/TELUQ/Session 8 - Hiver 2025/SCI 1402/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04AF714-2D53-4B1A-98F8-88745BCBEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{E04AF714-2D53-4B1A-98F8-88745BCBEEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21F5859E-15AC-4808-BCA9-9B5A7CFF3745}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2340" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2340" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Set 1 vs 2" sheetId="4" r:id="rId2"/>
+    <sheet name="Set 1 vs 3" sheetId="2" r:id="rId3"/>
+    <sheet name="1-3 vs 4" sheetId="3" r:id="rId4"/>
+    <sheet name="1v5" sheetId="5" r:id="rId5"/>
+    <sheet name="1v6" sheetId="6" r:id="rId6"/>
+    <sheet name="1v7" sheetId="7" r:id="rId7"/>
+    <sheet name="1v8" sheetId="8" r:id="rId8"/>
+    <sheet name="1v9" sheetId="9" r:id="rId9"/>
+    <sheet name="Fully Merged" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1074">
   <si>
     <t>app_id</t>
   </si>
@@ -2619,6 +2628,645 @@
   </si>
   <si>
     <t>Consider as it has a few quite unique things, like steam spy data, dlc info…</t>
+  </si>
+  <si>
+    <t>price_2024_05</t>
+  </si>
+  <si>
+    <t>Counter-Strike 2</t>
+  </si>
+  <si>
+    <t>['Czech', 'Danish', 'Dutch', 'English', 'Finnish', 'French', 'German', 'Hungarian', 'Italian', 'Japanese', 'Korean', 'Norwegian', 'Polish', 'Portuguese - Portugal', 'Portuguese - Brazil', 'Romanian', 'Russian', 'Simplified Chinese', 'Spanish - Spain', 'Swedish', 'Thai', 'Traditional Chinese', 'Turkish', 'Bulgarian', 'Ukrainian', 'Greek', 'Spanish - Latin America', 'Vietnamese']</t>
+  </si>
+  <si>
+    <t>['English', 'Vietnamese']</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'Cross-Platform Multiplayer', 'Steam Trading Cards', 'Steam Workshop', 'In-App Purchases', 'Valve Anti-Cheat enabled', 'Stats', 'Remote Play on Phone', 'Remote Play on Tablet', 'Remote Play on TV']</t>
+  </si>
+  <si>
+    <t>['Action', 'Free to Play']</t>
+  </si>
+  <si>
+    <t>{'FPS': 90076, 'Shooter': 64786, 'Multiplayer': 61798, 'Competitive': 52887, 'Action': 47165, 'Team-Based': 46061, 'e-sports': 43144, 'Tactical': 41033, 'First-Person': 39082, 'PvP': 34156, 'Online Co-Op': 33708, 'Co-op': 30037, 'Strategy': 29902, 'Military': 28512, 'War': 27826, 'Difficult': 25814, 'Trading': 25487, 'Realistic': 25261, 'Fast-Paced': 25188, 'Moddable': 6453}</t>
+  </si>
+  <si>
+    <t>PUBG: BATTLEGROUNDS</t>
+  </si>
+  <si>
+    <t>['English', 'Korean', 'Simplified Chinese', 'French', 'German', 'Spanish - Spain', 'Arabic', 'Japanese', 'Polish', 'Portuguese - Portugal', 'Russian', 'Turkish', 'Thai', 'Italian', 'Portuguese - Brazil', 'Traditional Chinese', 'Ukrainian']</t>
+  </si>
+  <si>
+    <t>['KRAFTON, Inc.']</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'PvP', 'Online PvP', 'Stats', 'Remote Play on Phone', 'Remote Play on Tablet']</t>
+  </si>
+  <si>
+    <t>['Action', 'Adventure', 'Massively Multiplayer', 'Free to Play']</t>
+  </si>
+  <si>
+    <t>{'Survival': 14611, 'Shooter': 12477, 'Battle Royale': 10683, 'Multiplayer': 10648, 'FPS': 8242, 'PvP': 7598, 'Third-Person Shooter': 7202, 'Action': 5921, 'Online Co-Op': 5261, 'Tactical': 4969, 'Co-op': 4240, 'First-Person': 4000, 'Strategy': 3046, 'Early Access': 2799, 'Competitive': 2351, 'Third Person': 2302, 'Team-Based': 2016, 'Difficult': 1691, 'Simulation': 1338, 'Stealth': 1251}</t>
+  </si>
+  <si>
+    <t>Dota 2</t>
+  </si>
+  <si>
+    <t>['Bulgarian', 'Czech', 'Danish', 'Dutch', 'English', 'Finnish', 'French', 'German', 'Greek', 'Hungarian', 'Italian', 'Japanese', 'Korean', 'Norwegian', 'Polish', 'Portuguese - Portugal', 'Portuguese - Brazil', 'Romanian', 'Russian', 'Simplified Chinese', 'Spanish - Spain', 'Swedish', 'Thai', 'Traditional Chinese', 'Turkish', 'Ukrainian', 'Spanish - Latin America', 'Vietnamese']</t>
+  </si>
+  <si>
+    <t>['English', 'Korean', 'Simplified Chinese', 'Vietnamese']</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'Co-op', 'Steam Trading Cards', 'Steam Workshop', 'SteamVR Collectibles', 'In-App Purchases', 'Valve Anti-Cheat enabled']</t>
+  </si>
+  <si>
+    <t>['Action', 'Strategy', 'Free to Play']</t>
+  </si>
+  <si>
+    <t>{'Free to Play': 59559, 'MOBA': 19966, 'Multiplayer': 15153, 'Strategy': 14096, 'e-sports': 11631, 'Team-Based': 10822, 'Competitive': 8166, 'Action': 7839, 'Online Co-Op': 7362, 'PvP': 5940, 'Difficult': 5227, 'Co-op': 4228, 'RTS': 4038, 'RPG': 3717, 'Tower Defense': 3710, 'Fantasy': 3687, 'Character Customization': 2869, 'Replay Value': 2712, 'Action RPG': 2411, 'Simulation': 1938}</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto V</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'Italian', 'German', 'Spanish - Spain', 'Korean', 'Polish', 'Portuguese - Brazil', 'Russian', 'Traditional Chinese', 'Japanese', 'Simplified Chinese', 'Spanish - Latin America']</t>
+  </si>
+  <si>
+    <t>['English', 'Spanish - Latin America']</t>
+  </si>
+  <si>
+    <t>['Rockstar North']</t>
+  </si>
+  <si>
+    <t>['Rockstar Games']</t>
+  </si>
+  <si>
+    <t>['Single-player', 'Multi-player', 'PvP', 'Online PvP', 'Co-op', 'Online Co-op', 'Steam Achievements', 'Full controller support', 'Remote Play on Phone', 'Remote Play on Tablet', 'Remote Play on TV']</t>
+  </si>
+  <si>
+    <t>{'Open World': 31998, 'Action': 23177, 'Multiplayer': 21328, 'Crime': 19059, 'Automobile Sim': 18579, 'Third Person': 18412, 'First-Person': 18054, 'Mature': 14752, 'Shooter': 14673, 'Adventure': 13427, 'Singleplayer': 12253, 'Third-Person Shooter': 11801, 'Racing': 11400, 'Co-op': 10077, 'Sandbox': 9843, 'Atmospheric': 9813, 'Funny': 9234, 'Great Soundtrack': 8593, 'Comedy': 8455, 'Moddable': 6794}</t>
+  </si>
+  <si>
+    <t>Henosis™</t>
+  </si>
+  <si>
+    <t>HENOSIS™ is a mysterious 2D Platform Puzzler where players are propelled into weird and visceral worlds as they take control of a small, droplet of water while overcoming obstacles and enemies throughout each level. The Player must venture through each world as it collects precious water tokens in order open the exit portal and restore vitality to its drought-ridden home world. Features: Traverse your way through 27 hand-crafted levels Unique player mechanics Battle menacing bosses across 3 distinct worlds* Original artwork &amp; animation Full controller support Localization support * Hidden world included!</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'Italian', 'German', 'Spanish - Spain', 'Japanese', 'Korean', 'Portuguese', 'Russian', 'Simplified Chinese', 'Traditional Chinese']</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1355720/header.jpg?t=1639875115</t>
+  </si>
+  <si>
+    <t>https://henosisgame.com/</t>
+  </si>
+  <si>
+    <t>info@henosisgame.com</t>
+  </si>
+  <si>
+    <t>Odd Critter Games</t>
+  </si>
+  <si>
+    <t>Single-player,Full controller support</t>
+  </si>
+  <si>
+    <t>Adventure,Casual,Indie</t>
+  </si>
+  <si>
+    <t>2D Platformer,Atmospheric,Surreal,Mystery,Puzzle,Survival,Adventure,Linear,Singleplayer,Experimental,Platformer,Precision Platformer,Puzzle-Platformer,2D,Stylized,Physics,Time Manipulation,Casual,Indie</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_20bbae2d9d5aaa2f043f372a551faabc0c47b0b4.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_d471414fcb5b734a198533f7d068e1931b778546.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_64739e5a9a48355814505d85203f9fd6521564ca.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_5ecf89d6ac345779da09f7d42b232c371d500e90.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_ed65011a9294f333d9ad1dd3378251b0410e3f51.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_d2ae58e4a8a88446ab4bb3a1eea5f3ab412efd0e.1920x1080.jpg?t=1639875115,https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_9bfed05ab4ff0ab6e55318af8ebc0ecb10bfb7da.1920x1080.jpg?t=1639875115</t>
+  </si>
+  <si>
+    <t>http://cdn.akamai.steamstatic.com/steam/apps/256819153/movie_max.mp4?t=1611314333</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>DLC count</t>
+  </si>
+  <si>
+    <t>Set 1</t>
+  </si>
+  <si>
+    <t>Set 3</t>
+  </si>
+  <si>
+    <t>Set 3 dropped columns</t>
+  </si>
+  <si>
+    <t>Galactic Bowling is an exaggerated and stylized bowling game with an intergalactic twist. Players will engage in fast-paced single and multi-player competition while being submerged in a unique new universe filled with over-the-top humor, wild characters, unique levels, and addictive game play.</t>
+  </si>
+  <si>
+    <t>List[1]: [{'title': 'Buy Galactic Bowling', 'description': '', 'subs': [{'text': 'Galactic Bowling - $19.99', 'description': '', 'price': 19.99}]}]...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Perpetual FX Creative']...</t>
+  </si>
+  <si>
+    <t>List[4]: ['Single-player', 'Multi-player', 'Steam Achievements']...</t>
+  </si>
+  <si>
+    <t>List[3]: ['Casual', 'Indie', 'Sports']...</t>
+  </si>
+  <si>
+    <t>List[10]: ['https://cdn.akamai.steamstatic.com/steam/apps/20200/0000005994.1920x1080.jpg?t=1640121033', 'https://cdn.akamai.steamstatic.com/steam/apps/20200/0000005993.1920x1080.jpg?t=1640121033', 'https://cdn.akamai.steamstatic.com/steam/apps/20200/0000005992.1920x1080.jpg?t=1640121033']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['http://cdn.akamai.steamstatic.com/steam/apps/256863704/movie_max.mp4?t=1638854607']...</t>
+  </si>
+  <si>
+    <t>NestedDict[4 keys]</t>
+  </si>
+  <si>
+    <t>THE LAW!! Looks to be a showdown atop a train. This will be your last fight. Good luck, Train Bandit.</t>
+  </si>
+  <si>
+    <t>List[10]: ['English', 'French', 'Italian']...</t>
+  </si>
+  <si>
+    <t>List[1]: [{'title': 'Buy Train Bandit', 'description': '', 'subs': [{'text': 'Train Bandit - $0.99', 'description': '', 'price': 0.99}]}]...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Rusty Moyher']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Wild Rooster']...</t>
+  </si>
+  <si>
+    <t>List[7]: ['Single-player', 'Steam Achievements', 'Full controller support']...</t>
+  </si>
+  <si>
+    <t>List[2]: ['Action', 'Indie']...</t>
+  </si>
+  <si>
+    <t>List[5]: ['https://cdn.akamai.steamstatic.com/steam/apps/655370/ss_16785eac54b29db688870e832f6997c89cd7804b.1920x1080.jpg?t=1617500526', 'https://cdn.akamai.steamstatic.com/steam/apps/655370/ss_599ad201ec3bb869449aaab4d0b103e220645762.1920x1080.jpg?t=1617500526', 'https://cdn.akamai.steamstatic.com/steam/apps/655370/ss_a26cfed1bc3e9ca4225fdc9d5c10681cfeb4f106.1920x1080.jpg?t=1617500526']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['http://cdn.akamai.steamstatic.com/steam/apps/256691108/movie_max.mp4?t=1506089586']...</t>
+  </si>
+  <si>
+    <t>Shoot vehicles, blow enemies with a special attack, protect your allies and ensure mission success!</t>
+  </si>
+  <si>
+    <t>List[2]: ['English', 'Portuguese - Brazil']...</t>
+  </si>
+  <si>
+    <t>List[1]: [{'title': 'Buy Jolt Project', 'description': '', 'subs': [{'text': 'Jolt Project - $4.99', 'description': '', 'price': 4.99}]}]...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Campião Games']...</t>
+  </si>
+  <si>
+    <t>List[4]: ['Action', 'Adventure', 'Indie']...</t>
+  </si>
+  <si>
+    <t>List[6]: ['https://cdn.akamai.steamstatic.com/steam/apps/1732930/ss_09d67dec0607be7c4ead80289763033a47c86d89.1920x1080.jpg?t=1637149386', 'https://cdn.akamai.steamstatic.com/steam/apps/1732930/ss_119713aa971021a5fe24ee241c4be9329d1a37ab.1920x1080.jpg?t=1637149386', 'https://cdn.akamai.steamstatic.com/steam/apps/1732930/ss_04221851fa82047cee95243edf20e413a35ff410.1920x1080.jpg?t=1637149386']...</t>
+  </si>
+  <si>
+    <t>List[2]: ['http://cdn.akamai.steamstatic.com/steam/apps/256847488/movie_max.mp4?t=1635980739', 'http://cdn.akamai.steamstatic.com/steam/apps/256847487/movie_max.mp4?t=1635980747']...</t>
+  </si>
+  <si>
+    <t>HENOSIS™ is a mysterious 2D Platform Puzzler where players are propelled into weird and visceral worlds as they take control of a small, droplet of water while overcoming obstacles and enemies throughout each level.</t>
+  </si>
+  <si>
+    <t>List[11]: ['English', 'French', 'Italian']...</t>
+  </si>
+  <si>
+    <t>List[1]: [{'title': 'Buy Henosis™', 'description': '', 'subs': [{'text': 'Henosis - $5.99', 'description': '', 'price': 5.99}]}]...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Odd Critter Games']...</t>
+  </si>
+  <si>
+    <t>List[2]: ['Single-player', 'Full controller support']...</t>
+  </si>
+  <si>
+    <t>List[3]: ['Adventure', 'Casual', 'Indie']...</t>
+  </si>
+  <si>
+    <t>List[7]: ['https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_20bbae2d9d5aaa2f043f372a551faabc0c47b0b4.1920x1080.jpg?t=1639875115', 'https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_d471414fcb5b734a198533f7d068e1931b778546.1920x1080.jpg?t=1639875115', 'https://cdn.akamai.steamstatic.com/steam/apps/1355720/ss_64739e5a9a48355814505d85203f9fd6521564ca.1920x1080.jpg?t=1639875115']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['http://cdn.akamai.steamstatic.com/steam/apps/256819153/movie_max.mp4?t=1611314333']...</t>
+  </si>
+  <si>
+    <t>NestedDict[19 keys]</t>
+  </si>
+  <si>
+    <t>Two Weeks in Painland</t>
+  </si>
+  <si>
+    <t>ABOUT THE GAME Play as a hacker who has arranged a deal with a gangster. That’s how the protagonist, Jack, is assigned a mission that should be accomplished in a specific timeframe, which he will find out soon enough. THE GAME’S FEATURES Spy on 4 senior managers within an organization to find out about their personalities. Manage the recruitment process in the organization to improve the work climate. Hack the candidates who want to get into the organization to make your job easier. Try to avoid having your physical health impacted negatively in the process. All of this while you enjoy an interesting story full of humor and action that evolves along with the game.</t>
+  </si>
+  <si>
+    <t>Two Weeks in Painland is a story-driven game about a run-of-the-mill hacker spying on gangsters who are anything but, all while trying to keep his life and limbs in the process. Easier said than done.</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/1139950/header.jpg?t=1595003825</t>
+  </si>
+  <si>
+    <t>https://www.unusual-games.com/home/</t>
+  </si>
+  <si>
+    <t>https://www.unusual-games.com/contact/</t>
+  </si>
+  <si>
+    <t>welistentoyou@unusual-games.com</t>
+  </si>
+  <si>
+    <t>This Game may contain content not appropriate for all ages, or may not be appropriate for viewing at work: violence, general Mature Content.</t>
+  </si>
+  <si>
+    <t>List[2]: ['English', 'Spanish - Spain']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['Unusual Games']...</t>
+  </si>
+  <si>
+    <t>List[2]: ['Single-player', 'Steam Achievements']...</t>
+  </si>
+  <si>
+    <t>List[2]: ['Adventure', 'Indie']...</t>
+  </si>
+  <si>
+    <t>List[24]: ['https://cdn.akamai.steamstatic.com/steam/apps/1139950/ss_cb94604e43f910a3b994f120412bdc5a576222ad.1920x1080.jpg?t=1595003825', 'https://cdn.akamai.steamstatic.com/steam/apps/1139950/ss_8602d875f27d7966e718f917725ac990f70179d7.1920x1080.jpg?t=1595003825', 'https://cdn.akamai.steamstatic.com/steam/apps/1139950/ss_750a7f351da65eb0b5ef9724e5af211b2f6a0f5d.1920x1080.jpg?t=1595003825']...</t>
+  </si>
+  <si>
+    <t>List[1]: ['http://cdn.akamai.steamstatic.com/steam/apps/256764430/movie_max.mp4?t=1580660973']...</t>
+  </si>
+  <si>
+    <t>Gearbox Software</t>
+  </si>
+  <si>
+    <t>Single-player;Multi-player;Valve Anti-Cheat enabled</t>
+  </si>
+  <si>
+    <t>FPS;Action;Sci-fi</t>
+  </si>
+  <si>
+    <t>Multi-player;Online Multi-Player;Valve Anti-Cheat enabled</t>
+  </si>
+  <si>
+    <t>Set 5</t>
+  </si>
+  <si>
+    <t>45317</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oKC9SAF4JAc</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/10/header.jpg</t>
+  </si>
+  <si>
+    <t>English,French,German,Italian,Spanish - Spain,Simplified Chinese,Traditional Chinese,Korean</t>
+  </si>
+  <si>
+    <t>Multi-player,PvP,Online PvP,Shared/Split Screen PvP,Valve Anti-Cheat enabled</t>
+  </si>
+  <si>
+    <t>Action,FPS,Multiplayer,Shooter,Classic,Team-Based,First-Person,Competitive,Tactical,1990's,e-sports,PvP,Military,Strategy,Score Attack,Survival,Assassin,1980s,Ninja,Tower Defense</t>
+  </si>
+  <si>
+    <t>https://gamefaqs.gamespot.com/pc/429818-counter-strike?ftag=MCD-06-10aaa1f</t>
+  </si>
+  <si>
+    <t>https://howlongtobeat.com/game?id=1953</t>
+  </si>
+  <si>
+    <t>https://www.metacritic.com/game/pc/counter-strike?ftag=MCD-06-10aaa1f</t>
+  </si>
+  <si>
+    <t>https://www.igdb.com/games/counter-strike</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/20</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/20/header.jpg</t>
+  </si>
+  <si>
+    <t>English,French,German,Italian,Spanish - Spain,Korean,Russian,Simplified Chinese,Traditional Chinese</t>
+  </si>
+  <si>
+    <t>Multi-player,PvP,Online PvP,Shared/Split Screen PvP,Valve Anti-Cheat enabled,Remote Play Together</t>
+  </si>
+  <si>
+    <t>Action,FPS,Multiplayer,Classic,Shooter,Class-Based,Team-Based,First-Person,1990's,Co-op,Competitive,Fast-Paced,Online Co-Op,Remake,Retro,Mod,Funny,Adventure,Story Rich,Casual</t>
+  </si>
+  <si>
+    <t>https://gamefaqs.gamespot.com/pc/562917-team-fortress-classic</t>
+  </si>
+  <si>
+    <t>https://howlongtobeat.com/game?id=9634</t>
+  </si>
+  <si>
+    <t>https://www.metacritic.com/game/pc/team-fortress-classic</t>
+  </si>
+  <si>
+    <t>https://www.igdb.com/games/team-fortress-classic</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j4MCo89bTWE</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/30/header.jpg</t>
+  </si>
+  <si>
+    <t>Multi-player,Valve Anti-Cheat enabled</t>
+  </si>
+  <si>
+    <t>FPS,World War II,Multiplayer,Action,Shooter,War,Team-Based,Classic,Class-Based,First-Person,Historical,Military,Tactical,Co-op,Singleplayer</t>
+  </si>
+  <si>
+    <t>https://gamefaqs.gamespot.com/pc/562741-day-of-defeat?ftag=MCD-06-10aaa1f</t>
+  </si>
+  <si>
+    <t>https://howlongtobeat.com/game?id=2282</t>
+  </si>
+  <si>
+    <t>https://www.metacritic.com/game/pc/day-of-defeat?ftag=MCD-06-10aaa1f</t>
+  </si>
+  <si>
+    <t>https://www.igdb.com/games/day-of-defeat</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/40</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jN_18uhiMS8</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/40/header.jpg</t>
+  </si>
+  <si>
+    <t>Action,FPS,Multiplayer,Classic,Shooter,First-Person,Arena Shooter,Sci-fi</t>
+  </si>
+  <si>
+    <t>https://gamefaqs.gamespot.com/pc/637185-deathmatch-classic</t>
+  </si>
+  <si>
+    <t>https://howlongtobeat.com/game?id=2373</t>
+  </si>
+  <si>
+    <t>https://www.metacritic.com/game/pc/deathmatch-classic</t>
+  </si>
+  <si>
+    <t>https://www.igdb.com/games/deathmatch-classic</t>
+  </si>
+  <si>
+    <t>https://store.steampowered.com/app/50</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZNZsWm-Ulk4</t>
+  </si>
+  <si>
+    <t>https://steamcdn-a.akamaihd.net/steam/apps/50/header.jpg</t>
+  </si>
+  <si>
+    <t>Single-player,Multi-player,Valve Anti-Cheat enabled,Remote Play Together</t>
+  </si>
+  <si>
+    <t>FPS,Action,Sci-fi,Singleplayer,Classic,Shooter,First-Person,Aliens,Adventure,1990's,Atmospheric,Military,Story Rich,Silent Protagonist,Co-op,Great Soundtrack,Puzzle,Gore,Moddable</t>
+  </si>
+  <si>
+    <t>https://gamefaqs.gamespot.com/pc/149551-half-life-opposing-force</t>
+  </si>
+  <si>
+    <t>Just Right</t>
+  </si>
+  <si>
+    <t>https://howlongtobeat.com/game?id=4256</t>
+  </si>
+  <si>
+    <t>https://www.metacritic.com/game/pc/half-life-opposing-force</t>
+  </si>
+  <si>
+    <t>https://www.igdb.com/games/half-life-opposing-force</t>
+  </si>
+  <si>
+    <t>#1656 hardest PC action game (#5600 on PC, #22929 overall)</t>
+  </si>
+  <si>
+    <t>#1079 highest rated PC action game (#6055 on PC, #18721 overall)</t>
+  </si>
+  <si>
+    <t>#46 longest PC action game (#773 on PC, #2305 overall)</t>
+  </si>
+  <si>
+    <t>#1869 hardest PC action game (#6422 on PC, #26239 overall)</t>
+  </si>
+  <si>
+    <t>#1799 lowest rated PC action game (#7435 on PC, #30579 overall)</t>
+  </si>
+  <si>
+    <t>#127 longest PC action game (#1501 on PC, #4994 overall)</t>
+  </si>
+  <si>
+    <t>#1804 hardest PC action game (#6155 on PC, #25056 overall)</t>
+  </si>
+  <si>
+    <t>#1872 highest rated PC action game (#9676 on PC, #32271 overall)</t>
+  </si>
+  <si>
+    <t>#113 longest PC action game (#1377 on PC, #4460 overall)</t>
+  </si>
+  <si>
+    <t>#1896 hardest PC action game (#6558 on PC, #26854 overall)</t>
+  </si>
+  <si>
+    <t>#1091 lowest rated PC action game (#4772 on PC, #18010 overall)</t>
+  </si>
+  <si>
+    <t>#216 shortest PC action game (#760 on PC, #5353 overall)</t>
+  </si>
+  <si>
+    <t>#1422 easiest PC action game (#7959 on PC, #32927 overall)</t>
+  </si>
+  <si>
+    <t>#1124 highest rated PC action game (#6244 on PC, #19521 overall)</t>
+  </si>
+  <si>
+    <t>#1120 shortest PC action game (#4054 on PC, #18832 overall)</t>
+  </si>
+  <si>
+    <t>https://cdn.akamai.steamstatic.com/steam/apps/10/header.jpg?t=1666823513</t>
+  </si>
+  <si>
+    <t>Includes intense violence and blood.</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'German', 'Italian', 'Spanish - Spain', 'Simplified Chinese', 'Traditional Chinese', 'Korean']</t>
+  </si>
+  <si>
+    <t>[{'title': 'Buy Counter-Strike', 'description': '', 'subs': [{'text': 'Counter-Strike: Condition Zero - $9.99', 'description': '', 'price': 9.99}, {'text': 'Counter-Strike - Commercial License - $9.99', 'description': '', 'price': 9.99}]}]</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'PvP', 'Online PvP', 'Shared/Split Screen PvP', 'Valve Anti-Cheat enabled', 'Family Sharing']</t>
+  </si>
+  <si>
+    <t>['Action']</t>
+  </si>
+  <si>
+    <t>['https://cdn.akamai.steamstatic.com/steam/apps/10/0000000132.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000000133.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000000134.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000000135.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000000136.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002540.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002539.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002538.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002537.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002536.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002541.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002542.1920x1080.jpg?t=1666823513', 'https://cdn.akamai.steamstatic.com/steam/apps/10/0000002543.1920x1080.jpg?t=1666823513']</t>
+  </si>
+  <si>
+    <t>10000000 - 20000000</t>
+  </si>
+  <si>
+    <t>{'Action': 5472, 'FPS': 4897, 'Multiplayer': 3444, 'Shooter': 3394, 'Classic': 2822, 'Team-Based': 1896, 'First-Person': 1736, 'Competitive': 1631, 'Tactical': 1370, "1990's": 1231, 'e-sports': 1215, 'PvP': 907, 'Old School': 807, 'Military': 647, 'Strategy': 628, 'Survival': 312, 'Score Attack': 296, '1980s': 276, 'Assassin': 237, 'Nostalgia': 180}</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'German', 'Italian', 'Spanish - Spain', 'Korean', 'Russian', 'Simplified Chinese', 'Traditional Chinese']</t>
+  </si>
+  <si>
+    <t>[{'title': 'Buy Team Fortress Classic', 'description': '', 'subs': [{'text': 'Team Fortress Classic - $4.99', 'description': '', 'price': 4.99}]}]</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'PvP', 'Online PvP', 'Shared/Split Screen PvP', 'Valve Anti-Cheat enabled', 'Remote Play Together', 'Family Sharing']</t>
+  </si>
+  <si>
+    <t>['https://cdn.akamai.steamstatic.com/steam/apps/20/0000000164.1920x1080.jpg?t=1579634708', 'https://cdn.akamai.steamstatic.com/steam/apps/20/0000000165.1920x1080.jpg?t=1579634708', 'https://cdn.akamai.steamstatic.com/steam/apps/20/0000000166.1920x1080.jpg?t=1579634708', 'https://cdn.akamai.steamstatic.com/steam/apps/20/0000000167.1920x1080.jpg?t=1579634708', 'https://cdn.akamai.steamstatic.com/steam/apps/20/0000000168.1920x1080.jpg?t=1579634708']</t>
+  </si>
+  <si>
+    <t>5000000 - 10000000</t>
+  </si>
+  <si>
+    <t>{'Action': 763, 'FPS': 327, 'Multiplayer': 277, 'Classic': 252, 'Hero Shooter': 224, 'Shooter': 221, 'Team-Based': 201, 'Class-Based': 195, 'First-Person': 186, "1990's": 157, 'Old School': 122, 'Co-op': 98, 'Competitive': 82, 'Fast-Paced': 72, 'Retro': 68, 'Online Co-Op': 60, 'Violent': 56, 'Funny': 39, 'Mod': 39, 'Remake': 38}</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'German', 'Italian', 'Spanish - Spain']</t>
+  </si>
+  <si>
+    <t>[{'title': 'Buy Day of Defeat', 'description': '', 'subs': [{'text': 'Day of Defeat - $4.99', 'description': '', 'price': 4.99}, {'text': 'Day of Defeat - Commercial License - $4.99', 'description': '', 'price': 4.99}]}]</t>
+  </si>
+  <si>
+    <t>['Multi-player', 'Valve Anti-Cheat enabled', 'Family Sharing']</t>
+  </si>
+  <si>
+    <t>['https://cdn.akamai.steamstatic.com/steam/apps/30/0000000169.1920x1080.jpg?t=1512413490', 'https://cdn.akamai.steamstatic.com/steam/apps/30/0000000170.1920x1080.jpg?t=1512413490', 'https://cdn.akamai.steamstatic.com/steam/apps/30/0000000171.1920x1080.jpg?t=1512413490', 'https://cdn.akamai.steamstatic.com/steam/apps/30/0000000172.1920x1080.jpg?t=1512413490', 'https://cdn.akamai.steamstatic.com/steam/apps/30/0000000173.1920x1080.jpg?t=1512413490']</t>
+  </si>
+  <si>
+    <t>{'FPS': 798, 'World War II': 270, 'Multiplayer': 212, 'Shooter': 193, 'Action': 164, 'War': 158, 'Team-Based': 137, 'Classic': 130, 'First-Person': 108, 'Class-Based': 83, 'Military': 71, 'Historical': 62, 'Tactical': 45, 'Singleplayer': 44, 'Co-op': 36, 'Retro': 23, 'Old School': 22, 'Difficult': 22, 'Strategy': 16, 'World War I': 13}</t>
+  </si>
+  <si>
+    <t>https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/40/header.jpg?t=1568752159</t>
+  </si>
+  <si>
+    <t>[{'title': 'Buy Deathmatch Classic', 'description': '', 'subs': [{'text': 'Deathmatch Classic - $4.99', 'description': '', 'price': 4.99}]}]</t>
+  </si>
+  <si>
+    <t>['https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/40/0000000142.1920x1080.jpg?t=1568752159', 'https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/40/0000000143.1920x1080.jpg?t=1568752159', 'https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/40/0000000144.1920x1080.jpg?t=1568752159', 'https://shared.akamai.steamstatic.com/store_item_assets/steam/apps/40/0000000145.1920x1080.jpg?t=1568752159']</t>
+  </si>
+  <si>
+    <t>{'Action': 635, 'FPS': 150, 'Classic': 115, 'Multiplayer': 106, 'Shooter': 100, 'First-Person': 80, 'Arena Shooter': 56, 'Old School': 44, 'Sci-fi': 36, 'Competitive': 30, 'Fast-Paced': 24, 'Retro': 21, 'Gore': 20, 'Co-op': 16, 'Difficult': 15, "1990's": 15, 'Singleplayer': 7}</t>
+  </si>
+  <si>
+    <t>https://help.steampowered.com</t>
+  </si>
+  <si>
+    <t>['English', 'French', 'German', 'Korean']</t>
+  </si>
+  <si>
+    <t>[{'title': 'Buy Half-Life: Opposing Force', 'description': '', 'subs': [{'text': 'Half-Life: Opposing Force - $4.99', 'description': '', 'price': 4.99}]}]</t>
+  </si>
+  <si>
+    <t>['Single-player', 'Multi-player', 'Valve Anti-Cheat enabled', 'Remote Play Together', 'Family Sharing']</t>
+  </si>
+  <si>
+    <t>['https://cdn.akamai.steamstatic.com/steam/apps/50/0000000155.1920x1080.jpg?t=1579628243', 'https://cdn.akamai.steamstatic.com/steam/apps/50/0000000156.1920x1080.jpg?t=1579628243', 'https://cdn.akamai.steamstatic.com/steam/apps/50/0000000157.1920x1080.jpg?t=1579628243', 'https://cdn.akamai.steamstatic.com/steam/apps/50/0000000158.1920x1080.jpg?t=1579628243', 'https://cdn.akamai.steamstatic.com/steam/apps/50/0000000159.1920x1080.jpg?t=1579628243']</t>
+  </si>
+  <si>
+    <t>2000000 - 5000000</t>
+  </si>
+  <si>
+    <t>{'FPS': 916, 'Action': 350, 'Classic': 281, 'Sci-fi': 275, 'Singleplayer': 254, 'Shooter': 243, 'First-Person': 214, 'Aliens': 203, "1990's": 158, 'Adventure': 136, 'Atmospheric': 124, 'Military': 123, 'Story Rich': 96, 'Silent Protagonist': 90, 'Great Soundtrack': 73, 'Gore': 56, 'Puzzle': 56, 'Moddable': 43, 'Co-op': 42, 'Retro': 37}</t>
+  </si>
+  <si>
+    <t>Space,Simulation,Sandbox,Sci-fi,Strategy,Space Sim,Open World,Trading,Singleplayer,Economy,Action,Capitalism,Flight,Great Soundtrack,Moddable,4X,Exploration,Atmospheric,Management,Multiplayer</t>
+  </si>
+  <si>
+    <t>X3: Terran Conflict</t>
+  </si>
+  <si>
+    <t>Simulation,Space,Strategy,Sci-fi,Singleplayer,Space Sim,Trading,Economy,Sandbox,Action,Open World,Flight,Exploration,Adventure</t>
+  </si>
+  <si>
+    <t>X: Beyond the Frontier</t>
+  </si>
+  <si>
+    <t>Space,Strategy,Simulation,Sci-fi,Singleplayer,Space Sim,Economy,Open World,Sandbox,Trading,Action,Flight,Exploration</t>
+  </si>
+  <si>
+    <t>X2: The Threat</t>
+  </si>
+  <si>
+    <t>Simulation,Strategy,Space,Sci-fi,Space Sim,Singleplayer,Sandbox,Economy,Action,Open World</t>
+  </si>
+  <si>
+    <t>X: Tension</t>
+  </si>
+  <si>
+    <t>Action,Simulation,FPS,Shooter,Tactical,Military,Realistic,Open World</t>
+  </si>
+  <si>
+    <t>ARMA: Combat Operations</t>
+  </si>
+  <si>
+    <t>{"appid":2700,"resolved_category":1,"resolved_items":[{"display_type":2,"loc_token":"#SteamDeckVerified_TestResult_SteamOSDoesNotSupport"}],"steam_deck_blog_url":""}</t>
+  </si>
+  <si>
+    <t>Simulation,Management,Sandbox,Building,Strategy,Singleplayer,Economy,Classic,Real-Time with Pause,Family Friendly,Funny,Moddable,Multiplayer,City Builder,Open World,Great Soundtrack,Comedy,Casual,Free to Play,Adventure</t>
+  </si>
+  <si>
+    <t>RollerCoaster Tycoon® 3: Platinum</t>
+  </si>
+  <si>
+    <t>price_2024_08</t>
+  </si>
+  <si>
+    <t>price_2024_09</t>
+  </si>
+  <si>
+    <t>price_2019_06</t>
+  </si>
+  <si>
+    <t>price_2023_11</t>
+  </si>
+  <si>
+    <t>gamefaqs_difficulty_rating</t>
+  </si>
+  <si>
+    <t>gamefaqs_review_score</t>
+  </si>
+  <si>
+    <t>gamefaqs_game_length</t>
+  </si>
+  <si>
+    <t>steam_spy_estimated_owners</t>
+  </si>
+  <si>
+    <t>igdb_review_score</t>
+  </si>
+  <si>
+    <t>has_drm</t>
+  </si>
+  <si>
+    <t>has_demos</t>
+  </si>
+  <si>
+    <t>Combined into "price_latest"</t>
   </si>
 </sst>
 </file>
@@ -2687,7 +3335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2699,6 +3347,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2714,6 +3365,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2981,8 +3636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="AE222" sqref="AE222"/>
+    <sheetView topLeftCell="U6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:AV31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10308,4 +10963,7655 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2361CA1C-A489-4110-9080-04DB360C475A}">
+  <dimension ref="A1:BC61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
+    <col min="2" max="2" width="40.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="J1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="O1" t="s">
+        <v>387</v>
+      </c>
+      <c r="P1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="W1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X1" t="s">
+        <v>442</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B45" s="13"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>861</v>
+      </c>
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B47" s="13"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B48" s="13"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:A61">
+    <sortCondition ref="A7:A61"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{783D1F91-9802-492A-9D32-CFEF9AC29AEE}">
+  <dimension ref="A7:AH36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH8" s="11"/>
+    </row>
+    <row r="9" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12">
+        <v>4111974</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="S9" s="12">
+        <v>19</v>
+      </c>
+      <c r="T9" s="12">
+        <v>4</v>
+      </c>
+      <c r="W9" s="12">
+        <v>150000000</v>
+      </c>
+      <c r="X9" s="12">
+        <v>29018</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>753</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>6078</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>352</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>1362469</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>8071426</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>80</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>56072</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>37</v>
+      </c>
+      <c r="L10" s="12">
+        <v>1701431</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="S10" s="12">
+        <v>23</v>
+      </c>
+      <c r="T10" s="12">
+        <v>1</v>
+      </c>
+      <c r="W10" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>590582</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>58</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>2365012</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>68</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>19517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12">
+        <v>90</v>
+      </c>
+      <c r="K11" s="12">
+        <v>0</v>
+      </c>
+      <c r="L11" s="12">
+        <v>14329</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="S11" s="12">
+        <v>10</v>
+      </c>
+      <c r="T11" s="12">
+        <v>5</v>
+      </c>
+      <c r="W11" s="12">
+        <v>350000000</v>
+      </c>
+      <c r="X11" s="12">
+        <v>35557</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>1327</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>1163</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>977</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>668192</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>81</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>2247365</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>71</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="12">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>96</v>
+      </c>
+      <c r="K12" s="12">
+        <v>77</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1641404</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S12" s="12">
+        <v>76</v>
+      </c>
+      <c r="T12" s="12">
+        <v>30</v>
+      </c>
+      <c r="W12" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X12" s="12">
+        <v>12898</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>590</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>6910</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>235</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>133571</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>1643791</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>92</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>730</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C20" s="12">
+        <v>41142</v>
+      </c>
+      <c r="D20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12">
+        <v>7024836</v>
+      </c>
+      <c r="I20" s="12">
+        <v>1029779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>578080</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43090</v>
+      </c>
+      <c r="D21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>1379580</v>
+      </c>
+      <c r="I21" s="12">
+        <v>981860</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>570</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C22" s="12">
+        <v>41464</v>
+      </c>
+      <c r="D22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12">
+        <v>1832477</v>
+      </c>
+      <c r="I22" s="12">
+        <v>406030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>271590</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C23" s="12">
+        <v>42107</v>
+      </c>
+      <c r="D23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>1557234</v>
+      </c>
+      <c r="I23" s="12">
+        <v>236827</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>13500</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="1">
+        <v>39773</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>9.99</v>
+      </c>
+      <c r="K28">
+        <v>9.99</v>
+      </c>
+      <c r="M28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>22364</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="1">
+        <v>40758</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2.99</v>
+      </c>
+      <c r="K29">
+        <v>2.99</v>
+      </c>
+      <c r="M29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>113020</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41388</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>14.99</v>
+      </c>
+      <c r="K30">
+        <v>14.99</v>
+      </c>
+      <c r="M30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <v>2199</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>21</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>92</v>
+      </c>
+      <c r="I36">
+        <v>3722</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85A63D5B-C4DD-4952-8C33-1859A4162D42}">
+  <dimension ref="A9:AH35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="12"/>
+    <col min="2" max="2" width="18.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P10" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U10" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH10" s="11"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>730</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C11" s="12">
+        <v>41142</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1</v>
+      </c>
+      <c r="L11" s="12">
+        <v>4111974</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="S11" s="12">
+        <v>19</v>
+      </c>
+      <c r="T11" s="12">
+        <v>4</v>
+      </c>
+      <c r="U11" s="12">
+        <v>7024836</v>
+      </c>
+      <c r="V11" s="12">
+        <v>1029779</v>
+      </c>
+      <c r="W11" s="12">
+        <v>150000000</v>
+      </c>
+      <c r="X11" s="12">
+        <v>29018</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>753</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>6078</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>352</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>1362469</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>8071426</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>80</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>56072</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>578080</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C12" s="12">
+        <v>43090</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <v>37</v>
+      </c>
+      <c r="L12" s="12">
+        <v>1701431</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="S12" s="12">
+        <v>23</v>
+      </c>
+      <c r="T12" s="12">
+        <v>1</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1379580</v>
+      </c>
+      <c r="V12" s="12">
+        <v>981860</v>
+      </c>
+      <c r="W12" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>590582</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>2365012</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>68</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>19517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>570</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C13" s="12">
+        <v>41464</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
+      <c r="G13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J13" s="12">
+        <v>90</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>14329</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="S13" s="12">
+        <v>10</v>
+      </c>
+      <c r="T13" s="12">
+        <v>5</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1832477</v>
+      </c>
+      <c r="V13" s="12">
+        <v>406030</v>
+      </c>
+      <c r="W13" s="12">
+        <v>350000000</v>
+      </c>
+      <c r="X13" s="12">
+        <v>35557</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>1327</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>1163</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>977</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>668192</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>81</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>2247365</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>71</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>271590</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C14" s="12">
+        <v>42107</v>
+      </c>
+      <c r="D14" s="12">
+        <v>17</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>1</v>
+      </c>
+      <c r="G14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="12">
+        <v>96</v>
+      </c>
+      <c r="K14" s="12">
+        <v>77</v>
+      </c>
+      <c r="L14" s="12">
+        <v>1641404</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S14" s="12">
+        <v>76</v>
+      </c>
+      <c r="T14" s="12">
+        <v>30</v>
+      </c>
+      <c r="U14" s="12">
+        <v>1557234</v>
+      </c>
+      <c r="V14" s="12">
+        <v>236827</v>
+      </c>
+      <c r="W14" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X14" s="12">
+        <v>12898</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>590</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>6910</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>235</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>133571</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>1643791</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>92</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>900</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="X19" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y19" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA19" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>20200</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="12">
+        <v>39742</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="F20" s="12">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <v>30</v>
+      </c>
+      <c r="L20" s="12">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="U20" s="12">
+        <v>6</v>
+      </c>
+      <c r="V20" s="12">
+        <v>11</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>655370</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="12">
+        <v>43020</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.99</v>
+      </c>
+      <c r="F21" s="12">
+        <v>0</v>
+      </c>
+      <c r="G21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12">
+        <v>12</v>
+      </c>
+      <c r="L21" s="12">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="S21" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="T21" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="U21" s="12">
+        <v>53</v>
+      </c>
+      <c r="V21" s="12">
+        <v>5</v>
+      </c>
+      <c r="W21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>1732930</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" s="12">
+        <v>44517</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>4.99</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="P22" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="12">
+        <v>0</v>
+      </c>
+      <c r="W22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>1355720</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="C23" s="12">
+        <v>44035</v>
+      </c>
+      <c r="D23" s="12">
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>5.99</v>
+      </c>
+      <c r="F23" s="12">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="12">
+        <v>0</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>889</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>893</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>894</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>897</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>898</v>
+      </c>
+      <c r="U23" s="12">
+        <v>3</v>
+      </c>
+      <c r="V23" s="12">
+        <v>0</v>
+      </c>
+      <c r="W23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="12">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>888</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="H35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BDF04B0-E5D6-47E6-B5F9-91AAC765EF8D}">
+  <dimension ref="A23:AP28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:AP28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>81</v>
+      </c>
+      <c r="K23" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" t="s">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" t="s">
+        <v>87</v>
+      </c>
+      <c r="S23" t="s">
+        <v>88</v>
+      </c>
+      <c r="T23" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" t="s">
+        <v>90</v>
+      </c>
+      <c r="V23" t="s">
+        <v>91</v>
+      </c>
+      <c r="W23" t="s">
+        <v>92</v>
+      </c>
+      <c r="X23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>108</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="6">
+        <v>39742</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>904</v>
+      </c>
+      <c r="J24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K24" t="s">
+        <v>158</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>30</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24" t="s">
+        <v>235</v>
+      </c>
+      <c r="W24" t="s">
+        <v>194</v>
+      </c>
+      <c r="X24" t="s">
+        <v>905</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>906</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>906</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>907</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>908</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>909</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>910</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>6</v>
+      </c>
+      <c r="AH24">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>911</v>
+      </c>
+      <c r="AP24">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="6">
+        <v>43020</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.99</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>912</v>
+      </c>
+      <c r="J25" t="s">
+        <v>168</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="M25" t="s">
+        <v>170</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>12</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25" t="s">
+        <v>913</v>
+      </c>
+      <c r="W25" t="s">
+        <v>194</v>
+      </c>
+      <c r="X25" t="s">
+        <v>914</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>915</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>916</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>918</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>919</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>920</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>53</v>
+      </c>
+      <c r="AH25">
+        <v>5</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>634</v>
+      </c>
+      <c r="AP25">
+        <v>655370</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B26" s="6">
+        <v>44517</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>4.99</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>921</v>
+      </c>
+      <c r="J26" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" t="s">
+        <v>182</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26" t="s">
+        <v>922</v>
+      </c>
+      <c r="W26" t="s">
+        <v>194</v>
+      </c>
+      <c r="X26" t="s">
+        <v>923</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>924</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>924</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>925</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>927</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>194</v>
+      </c>
+      <c r="AP26">
+        <v>1732930</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>887</v>
+      </c>
+      <c r="B27" s="6">
+        <v>44035</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>5.99</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>888</v>
+      </c>
+      <c r="G27" t="s">
+        <v>888</v>
+      </c>
+      <c r="H27" t="s">
+        <v>928</v>
+      </c>
+      <c r="J27" t="s">
+        <v>890</v>
+      </c>
+      <c r="K27" t="s">
+        <v>891</v>
+      </c>
+      <c r="L27" t="s">
+        <v>891</v>
+      </c>
+      <c r="M27" t="s">
+        <v>892</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="V27" t="s">
+        <v>929</v>
+      </c>
+      <c r="W27" t="s">
+        <v>194</v>
+      </c>
+      <c r="X27" t="s">
+        <v>930</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>931</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>931</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>932</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>933</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>934</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>935</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>3</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>936</v>
+      </c>
+      <c r="AP27">
+        <v>1355720</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>937</v>
+      </c>
+      <c r="B28" s="6">
+        <v>43864</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>938</v>
+      </c>
+      <c r="G28" t="s">
+        <v>938</v>
+      </c>
+      <c r="H28" t="s">
+        <v>939</v>
+      </c>
+      <c r="J28" t="s">
+        <v>940</v>
+      </c>
+      <c r="K28" t="s">
+        <v>941</v>
+      </c>
+      <c r="L28" t="s">
+        <v>942</v>
+      </c>
+      <c r="M28" t="s">
+        <v>943</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>17</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28" t="s">
+        <v>944</v>
+      </c>
+      <c r="V28" t="s">
+        <v>945</v>
+      </c>
+      <c r="W28" t="s">
+        <v>194</v>
+      </c>
+      <c r="X28" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>946</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>946</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>947</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>948</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>949</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>950</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>50</v>
+      </c>
+      <c r="AH28">
+        <v>8</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
+        <v>0</v>
+      </c>
+      <c r="AL28">
+        <v>0</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>641</v>
+      </c>
+      <c r="AP28">
+        <v>1139950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43D4177-8829-4858-BB3D-A668C6A82D1B}">
+  <dimension ref="A6:AH27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="12"/>
+    <col min="3" max="3" width="13.88671875" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH7" s="11"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
+        <v>730</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C8" s="12">
+        <v>41142</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8" s="12">
+        <v>4111974</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="S8" s="12">
+        <v>19</v>
+      </c>
+      <c r="T8" s="12">
+        <v>4</v>
+      </c>
+      <c r="U8" s="12">
+        <v>7024836</v>
+      </c>
+      <c r="V8" s="12">
+        <v>1029779</v>
+      </c>
+      <c r="W8" s="12">
+        <v>150000000</v>
+      </c>
+      <c r="X8" s="12">
+        <v>29018</v>
+      </c>
+      <c r="Y8" s="12">
+        <v>753</v>
+      </c>
+      <c r="Z8" s="12">
+        <v>6078</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>352</v>
+      </c>
+      <c r="AB8" s="12">
+        <v>1362469</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD8" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE8" s="12">
+        <v>8071426</v>
+      </c>
+      <c r="AF8" s="12">
+        <v>80</v>
+      </c>
+      <c r="AG8" s="12">
+        <v>56072</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
+        <v>578080</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C9" s="12">
+        <v>43090</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12">
+        <v>37</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1701431</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="S9" s="12">
+        <v>23</v>
+      </c>
+      <c r="T9" s="12">
+        <v>1</v>
+      </c>
+      <c r="U9" s="12">
+        <v>1379580</v>
+      </c>
+      <c r="V9" s="12">
+        <v>981860</v>
+      </c>
+      <c r="W9" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12">
+        <v>590582</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>58</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>2365012</v>
+      </c>
+      <c r="AF9" s="12">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="12">
+        <v>19517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>570</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C10" s="12">
+        <v>41464</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>2</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>90</v>
+      </c>
+      <c r="K10" s="12">
+        <v>0</v>
+      </c>
+      <c r="L10" s="12">
+        <v>14329</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="S10" s="12">
+        <v>10</v>
+      </c>
+      <c r="T10" s="12">
+        <v>5</v>
+      </c>
+      <c r="U10" s="12">
+        <v>1832477</v>
+      </c>
+      <c r="V10" s="12">
+        <v>406030</v>
+      </c>
+      <c r="W10" s="12">
+        <v>350000000</v>
+      </c>
+      <c r="X10" s="12">
+        <v>35557</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>1327</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>1163</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>977</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>668192</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>81</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>2247365</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>71</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>271590</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C11" s="12">
+        <v>42107</v>
+      </c>
+      <c r="D11" s="12">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>96</v>
+      </c>
+      <c r="K11" s="12">
+        <v>77</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1641404</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S11" s="12">
+        <v>76</v>
+      </c>
+      <c r="T11" s="12">
+        <v>30</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1557234</v>
+      </c>
+      <c r="V11" s="12">
+        <v>236827</v>
+      </c>
+      <c r="W11" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X11" s="12">
+        <v>12898</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>590</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>6910</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>235</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>133571</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>1643791</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>92</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="L21" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q21" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>10</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="12">
+        <v>36831</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H22" s="12">
+        <v>0</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L22" s="12">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12">
+        <v>124534</v>
+      </c>
+      <c r="N22" s="12">
+        <v>3339</v>
+      </c>
+      <c r="O22" s="12">
+        <v>17612</v>
+      </c>
+      <c r="P22" s="12">
+        <v>317</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="R22" s="12">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>20</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="12">
+        <v>36251</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H23" s="12">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="12">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12">
+        <v>3318</v>
+      </c>
+      <c r="N23" s="12">
+        <v>633</v>
+      </c>
+      <c r="O23" s="12">
+        <v>277</v>
+      </c>
+      <c r="P23" s="12">
+        <v>62</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R23" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="12">
+        <v>30</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C24" s="12">
+        <v>37742</v>
+      </c>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="L24" s="12">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12">
+        <v>3416</v>
+      </c>
+      <c r="N24" s="12">
+        <v>398</v>
+      </c>
+      <c r="O24" s="12">
+        <v>187</v>
+      </c>
+      <c r="P24" s="12">
+        <v>34</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R24" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
+        <v>40</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="12">
+        <v>37043</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H25" s="12">
+        <v>0</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L25" s="12">
+        <v>0</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1273</v>
+      </c>
+      <c r="N25" s="12">
+        <v>267</v>
+      </c>
+      <c r="O25" s="12">
+        <v>258</v>
+      </c>
+      <c r="P25" s="12">
+        <v>184</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R25" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="12">
+        <v>50</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="C26" s="12">
+        <v>36465</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H26" s="12">
+        <v>0</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>953</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0</v>
+      </c>
+      <c r="M26" s="12">
+        <v>5250</v>
+      </c>
+      <c r="N26" s="12">
+        <v>288</v>
+      </c>
+      <c r="O26" s="12">
+        <v>624</v>
+      </c>
+      <c r="P26" s="12">
+        <v>415</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R26" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>60</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C27" s="12">
+        <v>36831</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H27" s="12">
+        <v>0</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>954</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="L27" s="12">
+        <v>0</v>
+      </c>
+      <c r="M27" s="12">
+        <v>2758</v>
+      </c>
+      <c r="N27" s="12">
+        <v>684</v>
+      </c>
+      <c r="O27" s="12">
+        <v>175</v>
+      </c>
+      <c r="P27" s="12">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="R27" s="12">
+        <v>3.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C759282-D54B-443E-95FE-63835A193756}">
+  <dimension ref="A8:AH23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="10" width="8.88671875" style="12"/>
+    <col min="11" max="11" width="28.33203125" style="12" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>861</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH9" s="11"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
+        <v>730</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C10" s="12">
+        <v>41142</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1</v>
+      </c>
+      <c r="L10" s="12">
+        <v>4111974</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>864</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>865</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="S10" s="12">
+        <v>19</v>
+      </c>
+      <c r="T10" s="12">
+        <v>4</v>
+      </c>
+      <c r="U10" s="12">
+        <v>7024836</v>
+      </c>
+      <c r="V10" s="12">
+        <v>1029779</v>
+      </c>
+      <c r="W10" s="12">
+        <v>150000000</v>
+      </c>
+      <c r="X10" s="12">
+        <v>29018</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>753</v>
+      </c>
+      <c r="Z10" s="12">
+        <v>6078</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>352</v>
+      </c>
+      <c r="AB10" s="12">
+        <v>1362469</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>867</v>
+      </c>
+      <c r="AD10" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE10" s="12">
+        <v>8071426</v>
+      </c>
+      <c r="AF10" s="12">
+        <v>80</v>
+      </c>
+      <c r="AG10" s="12">
+        <v>56072</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
+        <v>578080</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>868</v>
+      </c>
+      <c r="C11" s="12">
+        <v>43090</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0</v>
+      </c>
+      <c r="K11" s="12">
+        <v>37</v>
+      </c>
+      <c r="L11" s="12">
+        <v>1701431</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>871</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>872</v>
+      </c>
+      <c r="S11" s="12">
+        <v>23</v>
+      </c>
+      <c r="T11" s="12">
+        <v>1</v>
+      </c>
+      <c r="U11" s="12">
+        <v>1379580</v>
+      </c>
+      <c r="V11" s="12">
+        <v>981860</v>
+      </c>
+      <c r="W11" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>590582</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>58</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>2365012</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>68</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>19517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
+        <v>570</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="C12" s="12">
+        <v>41464</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="J12" s="12">
+        <v>90</v>
+      </c>
+      <c r="K12" s="12">
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <v>14329</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>876</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="S12" s="12">
+        <v>10</v>
+      </c>
+      <c r="T12" s="12">
+        <v>5</v>
+      </c>
+      <c r="U12" s="12">
+        <v>1832477</v>
+      </c>
+      <c r="V12" s="12">
+        <v>406030</v>
+      </c>
+      <c r="W12" s="12">
+        <v>350000000</v>
+      </c>
+      <c r="X12" s="12">
+        <v>35557</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>1327</v>
+      </c>
+      <c r="Z12" s="12">
+        <v>1163</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>977</v>
+      </c>
+      <c r="AB12" s="12">
+        <v>668192</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>879</v>
+      </c>
+      <c r="AD12" s="12">
+        <v>81</v>
+      </c>
+      <c r="AE12" s="12">
+        <v>2247365</v>
+      </c>
+      <c r="AF12" s="12">
+        <v>71</v>
+      </c>
+      <c r="AG12" s="12">
+        <v>23832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>271590</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>880</v>
+      </c>
+      <c r="C13" s="12">
+        <v>42107</v>
+      </c>
+      <c r="D13" s="12">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>96</v>
+      </c>
+      <c r="K13" s="12">
+        <v>77</v>
+      </c>
+      <c r="L13" s="12">
+        <v>1641404</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>883</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>885</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="S13" s="12">
+        <v>76</v>
+      </c>
+      <c r="T13" s="12">
+        <v>30</v>
+      </c>
+      <c r="U13" s="12">
+        <v>1557234</v>
+      </c>
+      <c r="V13" s="12">
+        <v>236827</v>
+      </c>
+      <c r="W13" s="12">
+        <v>75000000</v>
+      </c>
+      <c r="X13" s="12">
+        <v>12898</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>590</v>
+      </c>
+      <c r="Z13" s="12">
+        <v>6910</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>235</v>
+      </c>
+      <c r="AB13" s="12">
+        <v>133571</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="AD13" s="12">
+        <v>87</v>
+      </c>
+      <c r="AE13" s="12">
+        <v>1643791</v>
+      </c>
+      <c r="AF13" s="12">
+        <v>92</v>
+      </c>
+      <c r="AG13" s="12">
+        <v>16181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q19" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="S19" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="T19" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>2719580</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="12">
+        <v>0</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>45295</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12">
+        <v>0</v>
+      </c>
+      <c r="P20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="R20" s="12">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="12">
+        <v>2719590</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12">
+        <v>0</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" s="12">
+        <v>0</v>
+      </c>
+      <c r="N21" s="12">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12">
+        <v>0</v>
+      </c>
+      <c r="P21" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="R21" s="12">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12">
+        <v>0</v>
+      </c>
+      <c r="T21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="12">
+        <v>2719600</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="12">
+        <v>32</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="J22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" s="12">
+        <v>9</v>
+      </c>
+      <c r="N22" s="12">
+        <v>8</v>
+      </c>
+      <c r="O22" s="12">
+        <v>1</v>
+      </c>
+      <c r="P22" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="R22" s="12">
+        <v>88.9</v>
+      </c>
+      <c r="S22" s="12">
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="12">
+        <v>9.99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="12">
+        <v>2719610</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0</v>
+      </c>
+      <c r="H23" s="12">
+        <v>28</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="J23" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12">
+        <v>45339</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" s="12">
+        <v>0</v>
+      </c>
+      <c r="N23" s="12">
+        <v>0</v>
+      </c>
+      <c r="O23" s="12">
+        <v>0</v>
+      </c>
+      <c r="P23" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="R23" s="12">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12">
+        <v>0</v>
+      </c>
+      <c r="T23" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="12">
+        <v>2.99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45AE378A-B245-4B1C-8AC6-24AD066D1081}">
+  <dimension ref="A10:AT27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C11" s="1">
+        <v>36831</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>9.99</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>279</v>
+      </c>
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" t="s">
+        <v>279</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M11" t="s">
+        <v>330</v>
+      </c>
+      <c r="O11" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>88</v>
+      </c>
+      <c r="S11" t="s">
+        <v>965</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>149445</v>
+      </c>
+      <c r="V11" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="X11" t="s">
+        <v>1020</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>230955</v>
+      </c>
+      <c r="AI11">
+        <v>6024</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>11703</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AQ11">
+        <v>96</v>
+      </c>
+      <c r="AR11">
+        <v>149589</v>
+      </c>
+      <c r="AS11">
+        <v>95</v>
+      </c>
+      <c r="AT11">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C12" s="1">
+        <v>36251</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>4.99</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
+      <c r="I12" t="s">
+        <v>280</v>
+      </c>
+      <c r="K12" t="s">
+        <v>564</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>6041</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="W12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>7075</v>
+      </c>
+      <c r="AI12">
+        <v>1069</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AK12">
+        <v>485</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>17</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>63</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AQ12">
+        <v>86</v>
+      </c>
+      <c r="AR12">
+        <v>6045</v>
+      </c>
+      <c r="AS12">
+        <v>89</v>
+      </c>
+      <c r="AT12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="1">
+        <v>37742</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4.99</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>281</v>
+      </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
+      <c r="I13" t="s">
+        <v>282</v>
+      </c>
+      <c r="K13" t="s">
+        <v>575</v>
+      </c>
+      <c r="L13" t="s">
+        <v>331</v>
+      </c>
+      <c r="O13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>79</v>
+      </c>
+      <c r="S13" t="s">
+        <v>983</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>4032</v>
+      </c>
+      <c r="W13" t="s">
+        <v>1033</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>6096</v>
+      </c>
+      <c r="AI13">
+        <v>666</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>101</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AQ13">
+        <v>87</v>
+      </c>
+      <c r="AR13">
+        <v>4038</v>
+      </c>
+      <c r="AS13">
+        <v>97</v>
+      </c>
+      <c r="AT13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>275</v>
+      </c>
+      <c r="C14" s="1">
+        <v>37043</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>4.99</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>582</v>
+      </c>
+      <c r="H14" t="s">
+        <v>582</v>
+      </c>
+      <c r="I14" t="s">
+        <v>582</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="O14" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>2113</v>
+      </c>
+      <c r="W14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>549</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>2438</v>
+      </c>
+      <c r="AI14">
+        <v>514</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AK14">
+        <v>4697</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>7</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>4</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AQ14">
+        <v>81</v>
+      </c>
+      <c r="AR14">
+        <v>2120</v>
+      </c>
+      <c r="AS14">
+        <v>95</v>
+      </c>
+      <c r="AT14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" s="1">
+        <v>36465</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>4.99</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>590</v>
+      </c>
+      <c r="H15" t="s">
+        <v>590</v>
+      </c>
+      <c r="I15" t="s">
+        <v>590</v>
+      </c>
+      <c r="K15" t="s">
+        <v>591</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O15" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>18908</v>
+      </c>
+      <c r="W15" t="s">
+        <v>1043</v>
+      </c>
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1044</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>592</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>549</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>1023</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>20991</v>
+      </c>
+      <c r="AI15">
+        <v>1061</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AK15">
+        <v>331</v>
+      </c>
+      <c r="AL15">
+        <v>36</v>
+      </c>
+      <c r="AM15">
+        <v>161</v>
+      </c>
+      <c r="AN15">
+        <v>36</v>
+      </c>
+      <c r="AO15">
+        <v>87</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AQ15">
+        <v>95</v>
+      </c>
+      <c r="AR15">
+        <v>18994</v>
+      </c>
+      <c r="AS15">
+        <v>95</v>
+      </c>
+      <c r="AT15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE22" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="AF22" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM22" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="AO22" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AP22" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="AR22" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="AS22" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="AT22" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>957</v>
+      </c>
+      <c r="C23" t="s">
+        <v>958</v>
+      </c>
+      <c r="D23">
+        <v>97</v>
+      </c>
+      <c r="E23" s="1">
+        <v>36831</v>
+      </c>
+      <c r="F23" s="1">
+        <v>36838</v>
+      </c>
+      <c r="G23" s="1">
+        <v>36831</v>
+      </c>
+      <c r="H23" s="1">
+        <v>36323</v>
+      </c>
+      <c r="I23" s="1">
+        <v>36323</v>
+      </c>
+      <c r="J23" t="s">
+        <v>959</v>
+      </c>
+      <c r="K23" t="s">
+        <v>263</v>
+      </c>
+      <c r="L23" t="s">
+        <v>279</v>
+      </c>
+      <c r="M23">
+        <v>999</v>
+      </c>
+      <c r="N23">
+        <v>999</v>
+      </c>
+      <c r="P23" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>264</v>
+      </c>
+      <c r="R23" t="s">
+        <v>264</v>
+      </c>
+      <c r="S23" t="s">
+        <v>960</v>
+      </c>
+      <c r="T23" t="s">
+        <v>960</v>
+      </c>
+      <c r="U23" t="s">
+        <v>961</v>
+      </c>
+      <c r="V23" t="s">
+        <v>267</v>
+      </c>
+      <c r="W23" t="s">
+        <v>962</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>963</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AB23">
+        <v>3.9</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AD23">
+        <v>64.5</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AF23">
+        <v>15000000</v>
+      </c>
+      <c r="AG23">
+        <v>200</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>964</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>965</v>
+      </c>
+      <c r="AL23">
+        <v>88</v>
+      </c>
+      <c r="AM23">
+        <v>92</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>966</v>
+      </c>
+      <c r="AR23">
+        <v>70</v>
+      </c>
+      <c r="AS23">
+        <v>83</v>
+      </c>
+      <c r="AT23">
+        <v>25.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>967</v>
+      </c>
+      <c r="D24">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1">
+        <v>36251</v>
+      </c>
+      <c r="F24" s="1">
+        <v>36257</v>
+      </c>
+      <c r="G24" s="1">
+        <v>36251</v>
+      </c>
+      <c r="H24" s="1">
+        <v>36257</v>
+      </c>
+      <c r="I24" s="1">
+        <v>36257</v>
+      </c>
+      <c r="J24" t="s">
+        <v>968</v>
+      </c>
+      <c r="K24" t="s">
+        <v>270</v>
+      </c>
+      <c r="L24" t="s">
+        <v>280</v>
+      </c>
+      <c r="M24">
+        <v>499</v>
+      </c>
+      <c r="N24">
+        <v>499</v>
+      </c>
+      <c r="P24" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>264</v>
+      </c>
+      <c r="R24" t="s">
+        <v>264</v>
+      </c>
+      <c r="S24" t="s">
+        <v>969</v>
+      </c>
+      <c r="U24" t="s">
+        <v>970</v>
+      </c>
+      <c r="V24" t="s">
+        <v>267</v>
+      </c>
+      <c r="W24" t="s">
+        <v>971</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>972</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AB24">
+        <v>3.47</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AD24">
+        <v>50.6</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AF24">
+        <v>3500000</v>
+      </c>
+      <c r="AG24">
+        <v>20</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>973</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>974</v>
+      </c>
+      <c r="AM24">
+        <v>71</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>975</v>
+      </c>
+      <c r="AS24">
+        <v>70</v>
+      </c>
+      <c r="AT24">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>976</v>
+      </c>
+      <c r="C25" t="s">
+        <v>977</v>
+      </c>
+      <c r="D25">
+        <v>90</v>
+      </c>
+      <c r="E25" s="1">
+        <v>37742</v>
+      </c>
+      <c r="F25" s="1">
+        <v>37747</v>
+      </c>
+      <c r="G25" s="1">
+        <v>37742</v>
+      </c>
+      <c r="H25" s="1">
+        <v>36742</v>
+      </c>
+      <c r="I25" s="1">
+        <v>37742</v>
+      </c>
+      <c r="J25" t="s">
+        <v>978</v>
+      </c>
+      <c r="K25" t="s">
+        <v>272</v>
+      </c>
+      <c r="L25" t="s">
+        <v>281</v>
+      </c>
+      <c r="M25">
+        <v>499</v>
+      </c>
+      <c r="N25">
+        <v>499</v>
+      </c>
+      <c r="P25" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>264</v>
+      </c>
+      <c r="R25" t="s">
+        <v>264</v>
+      </c>
+      <c r="S25" t="s">
+        <v>579</v>
+      </c>
+      <c r="U25" t="s">
+        <v>979</v>
+      </c>
+      <c r="V25" t="s">
+        <v>267</v>
+      </c>
+      <c r="W25" t="s">
+        <v>980</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>981</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AB25">
+        <v>3.69</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AD25">
+        <v>53.1</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AF25">
+        <v>7500000</v>
+      </c>
+      <c r="AG25">
+        <v>28</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>982</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>983</v>
+      </c>
+      <c r="AL25">
+        <v>79</v>
+      </c>
+      <c r="AM25">
+        <v>91</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>984</v>
+      </c>
+      <c r="AR25">
+        <v>71</v>
+      </c>
+      <c r="AS25">
+        <v>76</v>
+      </c>
+      <c r="AT25">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>985</v>
+      </c>
+      <c r="C26" t="s">
+        <v>986</v>
+      </c>
+      <c r="D26">
+        <v>82</v>
+      </c>
+      <c r="E26" s="1">
+        <v>37043</v>
+      </c>
+      <c r="F26" s="1">
+        <v>37049</v>
+      </c>
+      <c r="G26" s="1">
+        <v>37043</v>
+      </c>
+      <c r="H26" s="1">
+        <v>37043</v>
+      </c>
+      <c r="I26" s="1">
+        <v>37073</v>
+      </c>
+      <c r="J26" t="s">
+        <v>987</v>
+      </c>
+      <c r="K26" t="s">
+        <v>275</v>
+      </c>
+      <c r="L26" t="s">
+        <v>582</v>
+      </c>
+      <c r="M26">
+        <v>499</v>
+      </c>
+      <c r="N26">
+        <v>499</v>
+      </c>
+      <c r="P26" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>264</v>
+      </c>
+      <c r="R26" t="s">
+        <v>264</v>
+      </c>
+      <c r="S26" t="s">
+        <v>969</v>
+      </c>
+      <c r="U26" t="s">
+        <v>970</v>
+      </c>
+      <c r="V26" t="s">
+        <v>267</v>
+      </c>
+      <c r="W26" t="s">
+        <v>988</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>989</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>463</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AB26">
+        <v>3.15</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AD26">
+        <v>2.9</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AF26">
+        <v>7500000</v>
+      </c>
+      <c r="AG26">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>991</v>
+      </c>
+      <c r="AM26">
+        <v>68</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>992</v>
+      </c>
+      <c r="AS26">
+        <v>75</v>
+      </c>
+      <c r="AT26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>993</v>
+      </c>
+      <c r="C27" t="s">
+        <v>994</v>
+      </c>
+      <c r="D27">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1">
+        <v>36465</v>
+      </c>
+      <c r="F27" s="1">
+        <v>36464</v>
+      </c>
+      <c r="G27" s="1">
+        <v>36465</v>
+      </c>
+      <c r="H27" s="1">
+        <v>36465</v>
+      </c>
+      <c r="I27" s="1">
+        <v>36474</v>
+      </c>
+      <c r="J27" t="s">
+        <v>995</v>
+      </c>
+      <c r="K27" t="s">
+        <v>589</v>
+      </c>
+      <c r="L27" t="s">
+        <v>590</v>
+      </c>
+      <c r="M27">
+        <v>499</v>
+      </c>
+      <c r="N27">
+        <v>499</v>
+      </c>
+      <c r="P27" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>951</v>
+      </c>
+      <c r="R27" t="s">
+        <v>264</v>
+      </c>
+      <c r="S27" t="s">
+        <v>598</v>
+      </c>
+      <c r="U27" t="s">
+        <v>996</v>
+      </c>
+      <c r="V27" t="s">
+        <v>267</v>
+      </c>
+      <c r="W27" t="s">
+        <v>997</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>998</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>999</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AB27">
+        <v>3.88</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AD27">
+        <v>10.7</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AF27">
+        <v>7500000</v>
+      </c>
+      <c r="AG27">
+        <v>235</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AI27">
+        <v>5</v>
+      </c>
+      <c r="AJ27">
+        <v>7</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AM27">
+        <v>86</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AP27">
+        <v>6</v>
+      </c>
+      <c r="AQ27">
+        <v>4</v>
+      </c>
+      <c r="AR27">
+        <v>70</v>
+      </c>
+      <c r="AS27">
+        <v>82</v>
+      </c>
+      <c r="AT27">
+        <v>3.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0515FC-DBAB-4FED-9C3C-76D67A1ECCE0}">
+  <dimension ref="A22:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>488</v>
+      </c>
+      <c r="B22" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" t="s">
+        <v>491</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>492</v>
+      </c>
+      <c r="G22" t="s">
+        <v>493</v>
+      </c>
+      <c r="H22" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="b">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>2900</v>
+      </c>
+      <c r="D23" t="s">
+        <v>495</v>
+      </c>
+      <c r="E23" t="s">
+        <v>496</v>
+      </c>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>497</v>
+      </c>
+      <c r="E24" t="s">
+        <v>263</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2810</v>
+      </c>
+      <c r="D25" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" t="s">
+        <v>499</v>
+      </c>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="b">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>2870</v>
+      </c>
+      <c r="D26" t="s">
+        <v>500</v>
+      </c>
+      <c r="E26" t="s">
+        <v>501</v>
+      </c>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2820</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2840</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>2800</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>2850</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>2780</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B32" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>2700</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{296BBB0F-9D2F-45FA-A49E-6DA6E2FCFBA7}">
+  <dimension ref="A20:BM25"/>
+  <sheetViews>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AV33" sqref="AV33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20" t="s">
+        <v>74</v>
+      </c>
+      <c r="K20" t="s">
+        <v>507</v>
+      </c>
+      <c r="L20" t="s">
+        <v>508</v>
+      </c>
+      <c r="M20" t="s">
+        <v>509</v>
+      </c>
+      <c r="N20" t="s">
+        <v>510</v>
+      </c>
+      <c r="O20" t="s">
+        <v>511</v>
+      </c>
+      <c r="P20" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>513</v>
+      </c>
+      <c r="R20" t="s">
+        <v>492</v>
+      </c>
+      <c r="S20" t="s">
+        <v>494</v>
+      </c>
+      <c r="T20" t="s">
+        <v>493</v>
+      </c>
+      <c r="U20" t="s">
+        <v>514</v>
+      </c>
+      <c r="V20" t="s">
+        <v>515</v>
+      </c>
+      <c r="W20" t="s">
+        <v>516</v>
+      </c>
+      <c r="X20" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>518</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>521</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>522</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>523</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>524</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>525</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>526</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>527</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>528</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>529</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>530</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>531</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>532</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>533</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>534</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>535</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>536</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>537</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>538</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>539</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>540</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>541</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>542</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>386</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>39</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>382</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>383</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>381</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>6</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>543</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>544</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>545</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>546</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>547</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E21" t="s">
+        <v>279</v>
+      </c>
+      <c r="F21" t="s">
+        <v>548</v>
+      </c>
+      <c r="G21" t="s">
+        <v>549</v>
+      </c>
+      <c r="H21" t="s">
+        <v>549</v>
+      </c>
+      <c r="I21" t="s">
+        <v>550</v>
+      </c>
+      <c r="J21" s="10">
+        <v>36831</v>
+      </c>
+      <c r="K21">
+        <v>8.19</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
+        <v>551</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>552</v>
+      </c>
+      <c r="R21" t="b">
+        <v>0</v>
+      </c>
+      <c r="S21" t="b">
+        <v>0</v>
+      </c>
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" t="b">
+        <v>0</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>553</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>554</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>557</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>558</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>559</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>560</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>561</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>562</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>562</v>
+      </c>
+      <c r="BB21">
+        <v>88</v>
+      </c>
+      <c r="BC21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>195304</v>
+      </c>
+      <c r="BE21">
+        <v>5018</v>
+      </c>
+      <c r="BF21">
+        <v>200322</v>
+      </c>
+      <c r="BG21">
+        <v>96.290917379207002</v>
+      </c>
+      <c r="BH21">
+        <v>154.916666666666</v>
+      </c>
+      <c r="BI21">
+        <v>4.2166666666666597</v>
+      </c>
+      <c r="BJ21">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="BK21">
+        <v>1.8</v>
+      </c>
+      <c r="BL21">
+        <v>14362</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D22" t="s">
+        <v>280</v>
+      </c>
+      <c r="E22" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" t="s">
+        <v>564</v>
+      </c>
+      <c r="G22" t="s">
+        <v>549</v>
+      </c>
+      <c r="H22" t="s">
+        <v>549</v>
+      </c>
+      <c r="I22" t="s">
+        <v>550</v>
+      </c>
+      <c r="J22" s="10">
+        <v>36251</v>
+      </c>
+      <c r="K22">
+        <v>3.99</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>551</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>552</v>
+      </c>
+      <c r="R22" t="b">
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <v>0</v>
+      </c>
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <v>0</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>566</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>567</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>568</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>569</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>570</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>571</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>561</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>572</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>573</v>
+      </c>
+      <c r="BB22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD22">
+        <v>5523</v>
+      </c>
+      <c r="BE22">
+        <v>909</v>
+      </c>
+      <c r="BF22">
+        <v>6432</v>
+      </c>
+      <c r="BG22">
+        <v>83.307449608244994</v>
+      </c>
+      <c r="BH22">
+        <v>1.93333333333333</v>
+      </c>
+      <c r="BI22">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="BJ22">
+        <v>0</v>
+      </c>
+      <c r="BK22">
+        <v>0</v>
+      </c>
+      <c r="BL22">
+        <v>85</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F23" t="s">
+        <v>575</v>
+      </c>
+      <c r="G23" t="s">
+        <v>549</v>
+      </c>
+      <c r="H23" t="s">
+        <v>549</v>
+      </c>
+      <c r="I23" t="s">
+        <v>550</v>
+      </c>
+      <c r="J23" s="10">
+        <v>37742</v>
+      </c>
+      <c r="K23">
+        <v>3.99</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>551</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>552</v>
+      </c>
+      <c r="R23" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>553</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>576</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>568</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>577</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>578</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>579</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>580</v>
+      </c>
+      <c r="BB23">
+        <v>79</v>
+      </c>
+      <c r="BC23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD23">
+        <v>5076</v>
+      </c>
+      <c r="BE23">
+        <v>556</v>
+      </c>
+      <c r="BF23">
+        <v>5632</v>
+      </c>
+      <c r="BG23">
+        <v>87.146850203423796</v>
+      </c>
+      <c r="BH23">
+        <v>6.25</v>
+      </c>
+      <c r="BI23">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="BJ23">
+        <v>0</v>
+      </c>
+      <c r="BK23">
+        <v>0</v>
+      </c>
+      <c r="BL23">
+        <v>138</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>275</v>
+      </c>
+      <c r="C24" t="s">
+        <v>582</v>
+      </c>
+      <c r="D24" t="s">
+        <v>582</v>
+      </c>
+      <c r="E24" t="s">
+        <v>582</v>
+      </c>
+      <c r="F24" t="s">
+        <v>583</v>
+      </c>
+      <c r="G24" t="s">
+        <v>549</v>
+      </c>
+      <c r="H24" t="s">
+        <v>549</v>
+      </c>
+      <c r="I24" t="s">
+        <v>550</v>
+      </c>
+      <c r="J24" s="10">
+        <v>37043</v>
+      </c>
+      <c r="K24">
+        <v>3.99</v>
+      </c>
+      <c r="L24" t="b">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
+        <v>551</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>552</v>
+      </c>
+      <c r="R24" t="b">
+        <v>0</v>
+      </c>
+      <c r="S24" t="b">
+        <v>0</v>
+      </c>
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" t="b">
+        <v>0</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>267</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>584</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>585</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>586</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>587</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>588</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>572</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>573</v>
+      </c>
+      <c r="BB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD24">
+        <v>1880</v>
+      </c>
+      <c r="BE24">
+        <v>414</v>
+      </c>
+      <c r="BF24">
+        <v>2294</v>
+      </c>
+      <c r="BG24">
+        <v>78.842535564671905</v>
+      </c>
+      <c r="BH24">
+        <v>0.38333333333333303</v>
+      </c>
+      <c r="BI24">
+        <v>0.15</v>
+      </c>
+      <c r="BJ24">
+        <v>0</v>
+      </c>
+      <c r="BK24">
+        <v>0</v>
+      </c>
+      <c r="BL24">
+        <v>3</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C25" t="s">
+        <v>590</v>
+      </c>
+      <c r="D25" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" t="s">
+        <v>590</v>
+      </c>
+      <c r="F25" t="s">
+        <v>591</v>
+      </c>
+      <c r="G25" t="s">
+        <v>592</v>
+      </c>
+      <c r="H25" t="s">
+        <v>549</v>
+      </c>
+      <c r="I25" t="s">
+        <v>550</v>
+      </c>
+      <c r="J25" s="10">
+        <v>36465</v>
+      </c>
+      <c r="K25">
+        <v>3.99</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
+        <v>551</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>552</v>
+      </c>
+      <c r="R25" t="b">
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <v>0</v>
+      </c>
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+      <c r="X25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>593</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>565</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>555</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>556</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>594</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>595</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>596</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>597</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>588</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>598</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>599</v>
+      </c>
+      <c r="BB25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BD25">
+        <v>13700</v>
+      </c>
+      <c r="BE25">
+        <v>674</v>
+      </c>
+      <c r="BF25">
+        <v>14374</v>
+      </c>
+      <c r="BG25">
+        <v>92.772118094853596</v>
+      </c>
+      <c r="BH25">
+        <v>11.033333333333299</v>
+      </c>
+      <c r="BI25">
+        <v>2.86666666666666</v>
+      </c>
+      <c r="BJ25">
+        <v>0</v>
+      </c>
+      <c r="BK25">
+        <v>0</v>
+      </c>
+      <c r="BL25">
+        <v>99</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>